--- a/config_2.2/game_enter_btn_config.xlsx
+++ b/config_2.2/game_enter_btn_config.xlsx
@@ -1483,10 +1483,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3;116#2#8#61#117#115#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>right</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1584,6 +1580,10 @@
   </si>
   <si>
     <t>"sys_act_base,"weekly","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3;116#2#8#122#61#117#115#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2218,10 +2218,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>336</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2232,7 +2232,7 @@
         <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2240,10 +2240,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3174,7 +3174,7 @@
         <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3188,10 +3188,10 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomRight" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3412,7 +3412,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3574,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3754,7 +3754,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -5275,7 +5275,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5292,7 +5292,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5309,7 +5309,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5318,7 +5318,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5326,7 +5326,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5335,7 +5335,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5352,7 +5352,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5360,7 +5360,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -5709,8 +5709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J112"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5748,7 +5748,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>332</v>
+        <v>357</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5787,7 +5787,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>315</v>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_2.2/game_enter_btn_config.xlsx
+++ b/config_2.2/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_2.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -961,18 +961,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"ty_gift","enter_gift_kllb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_bybs"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"ty_gift","enter_gift_cglb"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>top_right</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1584,6 +1572,18 @@
   </si>
   <si>
     <t>80#122#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","gift_kllb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","gift_bybs","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"ty_gift","gift_cglb","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2166,7 +2166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -2210,7 +2210,7 @@
         <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2218,10 +2218,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2232,7 +2232,7 @@
         <v>201</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2240,10 +2240,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -2578,7 +2578,7 @@
         <v>43</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2666,7 +2666,7 @@
         <v>110</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2695,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>226</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2706,10 +2706,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2717,10 +2717,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,10 +2728,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2739,10 +2739,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C9" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2806,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2920,7 +2920,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2981,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3019,10 +3019,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3057,10 +3057,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3098,7 +3098,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3136,7 +3136,7 @@
         <v>155</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +3163,7 @@
         <v>58</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3174,7 +3174,7 @@
         <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3187,11 +3187,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B80" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E81" sqref="E81"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3210,13 +3210,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>51</v>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>204</v>
+        <v>355</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3272,7 +3272,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3574,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>205</v>
+        <v>356</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3754,7 +3754,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>206</v>
+        <v>357</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4361,7 +4361,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4387,7 +4387,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4421,7 +4421,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4438,7 +4438,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4455,7 +4455,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4472,7 +4472,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4480,7 +4480,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4497,7 +4497,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4506,7 +4506,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4523,7 +4523,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4608,7 +4608,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4616,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4650,7 +4650,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4667,7 +4667,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4676,7 +4676,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4684,7 +4684,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4701,7 +4701,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4727,7 +4727,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4735,19 +4735,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4755,7 +4755,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4764,7 +4764,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4772,7 +4772,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4781,7 +4781,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4798,7 +4798,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4832,7 +4832,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4840,7 +4840,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4849,7 +4849,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4857,7 +4857,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4874,7 +4874,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4883,7 +4883,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4891,7 +4891,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4908,7 +4908,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4918,7 +4918,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4926,7 +4926,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4952,7 +4952,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4960,7 +4960,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4969,7 +4969,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,7 +4977,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4986,7 +4986,7 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4994,7 +4994,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -5003,7 +5003,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5011,7 +5011,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5020,7 +5020,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5028,7 +5028,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5037,7 +5037,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5045,19 +5045,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5065,7 +5065,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5074,7 +5074,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5091,7 +5091,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5099,7 +5099,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5108,7 +5108,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5116,7 +5116,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5125,7 +5125,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5133,7 +5133,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5184,7 +5184,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5210,7 +5210,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5218,19 +5218,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5238,19 +5238,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C117">
         <v>1</v>
       </c>
       <c r="D117" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5258,7 +5258,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5267,7 +5267,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5275,7 +5275,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5292,7 +5292,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5309,7 +5309,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5318,7 +5318,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5326,7 +5326,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5335,7 +5335,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5352,7 +5352,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5360,7 +5360,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5420,7 +5420,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5514,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5556,10 +5556,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +5605,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5616,7 +5616,7 @@
         <v>161</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5692,10 +5692,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5748,7 +5748,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5767,7 +5767,7 @@
         <v>148</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5787,10 +5787,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5862,10 +5862,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_2.2/game_enter_btn_config.xlsx
+++ b/config_2.2/game_enter_btn_config.xlsx
@@ -184,10 +184,6 @@
     <t>left_top</t>
   </si>
   <si>
-    <t>"sys_act_base",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>节日扩展活动</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1584,6 +1580,10 @@
   </si>
   <si>
     <t>"ty_gift","gift_cglb","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base,"weekly","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2196,10 +2196,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2207,10 +2207,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2218,10 +2218,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>337</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2229,10 +2229,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2240,10 +2240,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2283,10 +2283,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2331,10 +2331,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -2377,10 +2377,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2388,10 +2388,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2430,10 +2430,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2471,10 +2471,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2482,10 +2482,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -2528,10 +2528,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2575,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2620,7 +2620,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2652,10 +2652,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2663,10 +2663,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2674,10 +2674,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2685,7 +2685,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C4" s="6"/>
       <c r="F4" s="6"/>
@@ -2695,10 +2695,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -2706,10 +2706,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -2717,10 +2717,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2728,10 +2728,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2739,10 +2739,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C9" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2774,10 +2774,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>167</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2785,10 +2785,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -2796,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
@@ -2806,10 +2806,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -2817,10 +2817,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -2828,10 +2828,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -2839,10 +2839,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -2850,10 +2850,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -2920,7 +2920,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -2928,10 +2928,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2939,7 +2939,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2981,10 +2981,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3019,10 +3019,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3057,10 +3057,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3095,10 +3095,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3133,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3160,10 +3160,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3171,10 +3171,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3188,10 +3188,10 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B77" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3210,16 +3210,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
@@ -3230,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3248,7 +3248,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3266,13 +3266,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3376,7 +3376,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="6">
         <v>1</v>
@@ -3412,7 +3412,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>26</v>
+        <v>357</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -3422,7 +3422,7 @@
         <v>11</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -3430,7 +3430,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6">
         <v>1</v>
@@ -3440,7 +3440,7 @@
         <v>12</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -3448,7 +3448,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6">
         <v>0</v>
@@ -3458,7 +3458,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -3466,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C15" s="6">
         <v>0</v>
@@ -3476,7 +3476,7 @@
         <v>14</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -3484,7 +3484,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16" s="6">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3502,7 +3502,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="6">
         <v>1</v>
@@ -3512,7 +3512,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -3520,7 +3520,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6">
         <v>0</v>
@@ -3530,7 +3530,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -3538,7 +3538,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="6">
         <v>1</v>
@@ -3548,7 +3548,7 @@
         <v>18</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3556,7 +3556,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="6">
         <v>1</v>
@@ -3566,7 +3566,7 @@
         <v>19</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3574,7 +3574,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3584,7 +3584,7 @@
         <v>20</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3592,7 +3592,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="6">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -3610,7 +3610,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" s="6">
         <v>0</v>
@@ -3620,7 +3620,7 @@
         <v>22</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -3628,7 +3628,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="6">
         <v>1</v>
@@ -3638,7 +3638,7 @@
         <v>23</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -3646,7 +3646,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C25" s="6">
         <v>0</v>
@@ -3656,7 +3656,7 @@
         <v>24</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -3664,7 +3664,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
@@ -3674,7 +3674,7 @@
         <v>25</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -3682,7 +3682,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6">
         <v>1</v>
@@ -3692,7 +3692,7 @@
         <v>26</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -3700,7 +3700,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="6">
         <v>1</v>
@@ -3710,7 +3710,7 @@
         <v>27</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -3718,7 +3718,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C29" s="6">
         <v>0</v>
@@ -3728,7 +3728,7 @@
         <v>28</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -3736,7 +3736,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
@@ -3746,7 +3746,7 @@
         <v>29</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -3754,7 +3754,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -3764,7 +3764,7 @@
         <v>30</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C32" s="6">
         <v>0</v>
@@ -3782,7 +3782,7 @@
         <v>31</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -3790,7 +3790,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C33" s="6">
         <v>0</v>
@@ -3800,7 +3800,7 @@
         <v>32</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -3808,7 +3808,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="6">
         <v>1</v>
@@ -3818,7 +3818,7 @@
         <v>33</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -3826,7 +3826,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C35" s="6">
         <v>1</v>
@@ -3836,7 +3836,7 @@
         <v>34</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -3844,7 +3844,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C36" s="6">
         <v>1</v>
@@ -3854,7 +3854,7 @@
         <v>35</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
@@ -3862,7 +3862,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C37" s="6">
         <v>1</v>
@@ -3872,7 +3872,7 @@
         <v>36</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -3880,7 +3880,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C38" s="6">
         <v>1</v>
@@ -3890,7 +3890,7 @@
         <v>37</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -3898,7 +3898,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="6">
         <v>1</v>
@@ -3908,7 +3908,7 @@
         <v>38</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -3916,7 +3916,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
@@ -3926,7 +3926,7 @@
         <v>39</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -3934,7 +3934,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C41" s="6">
         <v>1</v>
@@ -3944,7 +3944,7 @@
         <v>40</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -3952,7 +3952,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3961,7 +3961,7 @@
         <v>41</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
@@ -3969,7 +3969,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3978,7 +3978,7 @@
         <v>42</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
@@ -3986,7 +3986,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3995,7 +3995,7 @@
         <v>43</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
@@ -4003,7 +4003,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -4012,7 +4012,7 @@
         <v>44</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
@@ -4020,7 +4020,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -4029,7 +4029,7 @@
         <v>45</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
@@ -4037,7 +4037,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -4046,7 +4046,7 @@
         <v>46</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
@@ -4054,7 +4054,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -4063,7 +4063,7 @@
         <v>47</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -4071,7 +4071,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -4080,7 +4080,7 @@
         <v>48</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -4088,7 +4088,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -4097,7 +4097,7 @@
         <v>49</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
@@ -4105,7 +4105,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -4114,7 +4114,7 @@
         <v>50</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
@@ -4122,7 +4122,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -4131,7 +4131,7 @@
         <v>51</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
@@ -4139,7 +4139,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -4148,7 +4148,7 @@
         <v>52</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
@@ -4156,7 +4156,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="6">
         <v>1</v>
@@ -4166,7 +4166,7 @@
         <v>53</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
@@ -4174,7 +4174,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -4183,7 +4183,7 @@
         <v>54</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
@@ -4191,7 +4191,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4200,7 +4200,7 @@
         <v>55</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
@@ -4208,7 +4208,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>56</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
@@ -4225,7 +4225,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4234,7 +4234,7 @@
         <v>57</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
@@ -4242,7 +4242,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4251,7 +4251,7 @@
         <v>58</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
@@ -4259,7 +4259,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4268,7 +4268,7 @@
         <v>59</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
@@ -4276,7 +4276,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4285,7 +4285,7 @@
         <v>60</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
@@ -4293,7 +4293,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>61</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
@@ -4310,7 +4310,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>62</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
@@ -4327,7 +4327,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4336,7 +4336,7 @@
         <v>63</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
@@ -4344,7 +4344,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4353,7 +4353,7 @@
         <v>64</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
@@ -4361,7 +4361,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4370,7 +4370,7 @@
         <v>65</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
@@ -4378,7 +4378,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4387,7 +4387,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4395,7 +4395,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4404,7 +4404,7 @@
         <v>67</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
@@ -4412,7 +4412,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4421,7 +4421,7 @@
         <v>68</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
@@ -4429,7 +4429,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C70">
         <v>0</v>
@@ -4438,7 +4438,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4446,7 +4446,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
@@ -4463,7 +4463,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4472,7 +4472,7 @@
         <v>71</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
@@ -4480,7 +4480,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4489,7 +4489,7 @@
         <v>72</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
@@ -4497,7 +4497,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4506,7 +4506,7 @@
         <v>73</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
@@ -4514,7 +4514,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -4523,7 +4523,7 @@
         <v>74</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
@@ -4531,7 +4531,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -4540,7 +4540,7 @@
         <v>75</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
@@ -4548,7 +4548,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -4557,7 +4557,7 @@
         <v>76</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
@@ -4565,7 +4565,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -4574,7 +4574,7 @@
         <v>77</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
@@ -4582,7 +4582,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -4591,7 +4591,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
@@ -4599,7 +4599,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -4608,7 +4608,7 @@
         <v>79</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
@@ -4616,7 +4616,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -4625,7 +4625,7 @@
         <v>80</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
@@ -4633,7 +4633,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -4642,7 +4642,7 @@
         <v>81</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
@@ -4650,7 +4650,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4659,7 +4659,7 @@
         <v>82</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
@@ -4667,7 +4667,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C84">
         <v>0</v>
@@ -4676,7 +4676,7 @@
         <v>83</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
@@ -4684,7 +4684,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -4693,7 +4693,7 @@
         <v>84</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
@@ -4701,7 +4701,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -4710,7 +4710,7 @@
         <v>85</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
@@ -4718,7 +4718,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -4727,7 +4727,7 @@
         <v>86</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
@@ -4735,19 +4735,19 @@
         <v>87</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E88">
         <v>87</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
@@ -4755,7 +4755,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -4764,7 +4764,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4772,7 +4772,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -4781,7 +4781,7 @@
         <v>89</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -4798,7 +4798,7 @@
         <v>90</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
@@ -4806,7 +4806,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -4815,7 +4815,7 @@
         <v>91</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
@@ -4823,7 +4823,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -4832,7 +4832,7 @@
         <v>92</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
@@ -4840,7 +4840,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4849,7 +4849,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4857,7 +4857,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -4866,7 +4866,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -4874,7 +4874,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -4883,7 +4883,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -4891,7 +4891,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -4900,7 +4900,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -4908,7 +4908,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -4918,7 +4918,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -4926,7 +4926,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -4935,7 +4935,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -4943,7 +4943,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -4952,7 +4952,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -4960,7 +4960,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -4969,7 +4969,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -4977,7 +4977,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -4986,7 +4986,7 @@
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -4994,7 +4994,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -5003,7 +5003,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5011,7 +5011,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5020,7 +5020,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5028,7 +5028,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5037,7 +5037,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5045,19 +5045,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5065,7 +5065,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5074,7 +5074,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5082,7 +5082,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5091,7 +5091,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5099,7 +5099,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5108,7 +5108,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5116,7 +5116,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5125,7 +5125,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5133,7 +5133,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5142,7 +5142,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5150,7 +5150,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5159,7 +5159,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5167,7 +5167,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5176,7 +5176,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5184,7 +5184,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5201,7 +5201,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5210,7 +5210,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5218,19 +5218,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5238,19 +5238,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>325</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5258,7 +5258,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5267,7 +5267,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5275,7 +5275,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5292,7 +5292,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5301,7 +5301,7 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
@@ -5309,7 +5309,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -5318,7 +5318,7 @@
         <v>120</v>
       </c>
       <c r="F121" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5326,7 +5326,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5335,7 +5335,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5352,7 +5352,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5360,7 +5360,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5369,7 +5369,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -5420,7 +5420,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5428,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -5437,7 +5437,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -5484,7 +5484,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -5514,7 +5514,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C5" s="7"/>
     </row>
@@ -5556,10 +5556,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +5605,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5613,10 +5613,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5664,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5681,10 +5681,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.2">
@@ -5692,10 +5692,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5734,10 +5734,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -5748,7 +5748,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5764,10 +5764,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5787,10 +5787,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -5806,7 +5806,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="6">
@@ -5824,10 +5824,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="D6" s="6">
         <f>'all_enter|所有按钮入口'!E6</f>
@@ -5843,10 +5843,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D7" s="6">
         <f>'all_enter|所有按钮入口'!E7</f>
@@ -5862,10 +5862,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -5881,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>
@@ -6970,10 +6970,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/config_2.2/game_enter_btn_config.xlsx
+++ b/config_2.2/game_enter_btn_config.xlsx
@@ -1579,11 +1579,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"sys_act_base,"weekly","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>3;116#2#8#122#61#117#115#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3188,10 +3188,10 @@
   <dimension ref="A1:F124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B92" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F123" sqref="F123"/>
+      <selection pane="bottomRight" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3412,7 +3412,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -5748,7 +5748,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
